--- a/13_反復計画書.xlsx
+++ b/13_反復計画書.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24D411FE-FF02-47DE-BBA7-07C8C0B7E294}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51452DAB-4EB5-4F29-91F7-3D6B8C4F71C7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テンプレート" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="24">
   <si>
     <t>プロジェクト全体のゴール</t>
     <rPh sb="6" eb="8">
@@ -93,10 +93,6 @@
     <rPh sb="2" eb="3">
       <t>ブツ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>XXX</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -788,7 +784,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -847,15 +843,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1">
@@ -1252,8 +1239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:A4"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1265,31 +1252,37 @@
     <col min="5" max="5" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="39"/>
-      <c r="B2" s="4"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="39"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="40"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -1315,75 +1308,99 @@
       <c r="B6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="15"/>
+      <c r="C6" s="28">
+        <v>43984</v>
+      </c>
+      <c r="D6" s="29">
+        <v>43987</v>
+      </c>
+      <c r="E6" s="30">
+        <v>43990</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="19"/>
       <c r="B7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="15"/>
+      <c r="C7" s="28">
+        <v>43987</v>
+      </c>
+      <c r="D7" s="29">
+        <v>43990</v>
+      </c>
+      <c r="E7" s="30">
+        <v>43993</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="19"/>
       <c r="B8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21"/>
-    </row>
-    <row r="9" spans="1:5" ht="99" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C8" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19"/>
       <c r="B9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="26"/>
-    </row>
-    <row r="10" spans="1:5" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C9" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="137.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
       <c r="B10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="34"/>
+      <c r="B11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
-      <c r="B11" s="14" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="33"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="10"/>
@@ -1392,7 +1409,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="20" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="10"/>
@@ -1401,7 +1418,7 @@
     </row>
     <row r="15" spans="1:5" ht="93" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="20" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="10"/>
@@ -1410,8 +1427,8 @@
     </row>
     <row r="16" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
-      <c r="B16" s="24" t="s">
-        <v>11</v>
+      <c r="B16" s="21" t="s">
+        <v>10</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -1433,8 +1450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1447,36 +1464,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="39"/>
+      <c r="A2" s="36"/>
       <c r="B2" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="39"/>
+      <c r="A3" s="36"/>
       <c r="B3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="40"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -1502,13 +1519,13 @@
       <c r="B6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="28">
         <v>43984</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="29">
         <v>43987</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="30">
         <v>43990</v>
       </c>
     </row>
@@ -1517,13 +1534,13 @@
       <c r="B7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="28">
         <v>43987</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="29">
         <v>43990</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="30">
         <v>43993</v>
       </c>
     </row>
@@ -1532,14 +1549,14 @@
       <c r="B8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="29" t="s">
+      <c r="C8" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="27" t="s">
         <v>16</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1547,14 +1564,14 @@
       <c r="B9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="E9" s="23" t="s">
         <v>22</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="139.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1562,20 +1579,20 @@
       <c r="B10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>24</v>
+      <c r="E10" s="25" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="37"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -1583,18 +1600,18 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="36"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="33"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="10"/>
@@ -1603,7 +1620,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="20" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="10"/>
@@ -1612,7 +1629,7 @@
     </row>
     <row r="15" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="20" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="10"/>
@@ -1621,8 +1638,8 @@
     </row>
     <row r="16" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
-      <c r="B16" s="24" t="s">
-        <v>11</v>
+      <c r="B16" s="21" t="s">
+        <v>10</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -1641,9 +1658,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1817,26 +1837,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1860,9 +1869,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/13_反復計画書.xlsx
+++ b/13_反復計画書.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51452DAB-4EB5-4F29-91F7-3D6B8C4F71C7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7C55BE-9B45-425A-AE87-D2F94AE783D0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="25">
   <si>
     <t>プロジェクト全体のゴール</t>
     <rPh sb="6" eb="8">
@@ -401,6 +401,13 @@
     </rPh>
     <rPh sb="81" eb="83">
       <t>シンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カード当てゲーム</t>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1240,7 +1247,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1259,7 +1266,9 @@
       <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
     </row>
@@ -1667,6 +1676,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="8" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="2a556f6f1c373661d5b840766e21bd71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="922e6d2db1fa74b296b39bb733b75624" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -1836,12 +1851,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
   <ds:schemaRefs>
@@ -1851,6 +1860,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2404E3D6-C5E8-4A32-932E-E10A1ED3B4C0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1866,20 +1891,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>